--- a/ExcelToDatabase/ExcelToDatabase/ExcelFile/Salary Sheet Sample.xlsx
+++ b/ExcelToDatabase/ExcelToDatabase/ExcelFile/Salary Sheet Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whizt\source\repos\ExcelToDatabase\ExcelToDatabase\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whizt\Desktop\ExcelToDatabase\ExcelToDatabase\ExcelToDatabase\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36838428-3C50-4A07-8CC2-D521D0428274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48729064-BA77-4009-AF7F-2B45C539C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8F260A5-4932-42E1-A94C-F5045958FEED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{E8F260A5-4932-42E1-A94C-F5045958FEED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +289,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -304,9 +310,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -324,19 +327,10 @@
     <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -345,9 +339,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -364,9 +355,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -380,6 +368,55 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -722,43 +759,49 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O2" activeCellId="7" sqref="C1:C1048576 F1:F1048576 H1:H1048576 J1:J1048576 K1:K1048576 L1:L1048576 N1:N1048576 O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="29" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="29"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="29"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="29"/>
     <col min="13" max="13" width="14.77734375" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="29" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" style="29" customWidth="1"/>
     <col min="16" max="16" width="16.77734375" customWidth="1"/>
     <col min="17" max="17" width="19.5546875" customWidth="1"/>
     <col min="18" max="18" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
@@ -768,7 +811,7 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -777,34 +820,34 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="37" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -818,208 +861,208 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="30">
         <v>0</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>25000</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="33">
         <v>31</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <v>25000</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="35">
         <v>200</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="38">
         <v>0</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="41">
         <v>1800</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17">
+      <c r="M3" s="14"/>
+      <c r="N3" s="41">
         <v>1800</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="43">
         <f>I3-J3-K3-L3</f>
         <v>23000</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="15">
         <v>1</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="20"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="31">
         <v>0</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="20">
         <v>18000</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="33">
         <v>30</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="21">
         <v>18000</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="36">
         <v>150</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="39">
         <v>0</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="42">
         <v>1800</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28">
+      <c r="M4" s="22"/>
+      <c r="N4" s="42">
         <v>1800</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="43">
         <f>I4-J4-K4-L4</f>
         <v>16050</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="23">
         <v>1</v>
       </c>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="30"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="30">
         <v>0</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>25000</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="33">
         <v>31</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>25000</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="35">
         <v>200</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="38">
         <v>0</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="41">
         <v>1800</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17">
+      <c r="M5" s="14"/>
+      <c r="N5" s="41">
         <v>1800</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="43">
         <f>I5-J5-K5-L5</f>
         <v>23000</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="15">
         <v>1</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="20"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="31">
         <v>0</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="20">
         <v>18000</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="33">
         <v>30</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="21">
         <v>18000</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="36">
         <v>150</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="39">
         <v>0</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="42">
         <v>1800</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28">
+      <c r="M6" s="22"/>
+      <c r="N6" s="42">
         <v>1800</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="43">
         <f>I6-J6-K6-L6</f>
         <v>16050</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="23">
         <v>1</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="30"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
